--- a/data/flux/rates/RR2018_alk_corrected.xlsx
+++ b/data/flux/rates/RR2018_alk_corrected.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="84">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t xml:space="preserve">NO2 Conc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicate (umol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphate (umol)</t>
   </si>
   <si>
     <t xml:space="preserve">P1 approximate</t>
@@ -456,7 +462,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1668,11 +1674,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="39150304"/>
-        <c:axId val="26691552"/>
+        <c:axId val="94298690"/>
+        <c:axId val="25948079"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39150304"/>
+        <c:axId val="94298690"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,12 +1754,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26691552"/>
+        <c:crossAx val="25948079"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26691552"/>
+        <c:axId val="25948079"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1829,7 +1835,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39150304"/>
+        <c:crossAx val="94298690"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1891,7 +1897,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3064,11 +3070,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="34582156"/>
-        <c:axId val="17537323"/>
+        <c:axId val="58069308"/>
+        <c:axId val="17011731"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34582156"/>
+        <c:axId val="58069308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3144,12 +3150,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17537323"/>
+        <c:crossAx val="17011731"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17537323"/>
+        <c:axId val="17011731"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,7 +3231,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34582156"/>
+        <c:crossAx val="58069308"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12831,10 +12837,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12844,13 +12850,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12884,29 +12891,35 @@
       <c r="J1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12941,26 +12954,28 @@
       <c r="J2" s="0" t="n">
         <v>0.914</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <f aca="false">H2+0.13</f>
         <v>7.58</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -12994,26 +13009,28 @@
       <c r="J3" s="0" t="n">
         <v>0.914</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <f aca="false">H3+0.13</f>
         <v>7.557</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -13047,26 +13064,28 @@
       <c r="J4" s="0" t="n">
         <v>0.914</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="0" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <f aca="false">H4+0.13</f>
         <v>7.548</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -13100,26 +13119,28 @@
       <c r="J5" s="0" t="n">
         <v>0.908</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="0" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <f aca="false">H5+0.13</f>
         <v>7.553</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -13153,26 +13174,28 @@
       <c r="J6" s="0" t="n">
         <v>0.91</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="0" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <f aca="false">H6+0.13</f>
         <v>7.548</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -13206,27 +13229,29 @@
       <c r="J7" s="0" t="n">
         <v>0.912</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="0" t="s">
+      <c r="K7" s="2" t="n">
+        <v>-0.03265926986</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <f aca="false">H7+0.13</f>
         <v>7.552</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>-0.03265926986</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13261,27 +13286,29 @@
       <c r="J8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="0" t="s">
+      <c r="K8" s="2" t="n">
+        <v>0.003131710809</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <f aca="false">H8+0.13</f>
         <v>7.557</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>0.003131710809</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13316,27 +13343,29 @@
       <c r="J9" s="0" t="n">
         <v>0.906</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="0" t="s">
+      <c r="K9" s="2" t="n">
+        <v>0.1462956335</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <f aca="false">H9+0.13</f>
         <v>7.58</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>0.1462956335</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13371,27 +13400,29 @@
       <c r="J10" s="0" t="n">
         <v>0.896</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="0" t="s">
+      <c r="K10" s="2" t="n">
+        <v>0.2178775948</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <f aca="false">H10+0.13</f>
         <v>7.614</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>0.2178775948</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13426,27 +13457,29 @@
       <c r="J11" s="0" t="n">
         <v>0.902</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="0" t="s">
+      <c r="K11" s="2" t="n">
+        <v>0.2536685755</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <f aca="false">H11+0.13</f>
         <v>7.701</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>0.2536685755</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13481,27 +13514,29 @@
       <c r="J12" s="0" t="n">
         <v>0.869</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="0" t="s">
+      <c r="K12" s="2" t="n">
+        <v>0.3610415175</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <f aca="false">H12+0.13</f>
         <v>7.872</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>0.3610415175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13536,27 +13571,29 @@
       <c r="J13" s="0" t="n">
         <v>0.911</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="0" t="s">
+      <c r="K13" s="2" t="n">
+        <v>0.2536685755</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <f aca="false">H13+0.13</f>
         <v>8.215</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <v>0.2536685755</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13591,29 +13628,31 @@
       <c r="J14" s="0" t="n">
         <v>0.918</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="0" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <f aca="false">H14+0.13</f>
         <v>7.583</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="T14" s="1" t="n">
         <v>43191.775</v>
       </c>
-      <c r="R14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -13647,30 +13686,32 @@
       <c r="J15" s="0" t="n">
         <v>0.918</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" s="0" t="s">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <f aca="false">H15+0.13</f>
         <v>7.549</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Q15" s="1" t="n">
-        <f aca="false">Q14</f>
+      <c r="T15" s="1" t="n">
+        <f aca="false">T14</f>
         <v>43191.775</v>
       </c>
-      <c r="R15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -13704,30 +13745,32 @@
       <c r="J16" s="0" t="n">
         <v>0.908</v>
       </c>
-      <c r="K16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="0" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <f aca="false">H16+0.13</f>
         <v>7.528</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q16" s="1" t="n">
-        <f aca="false">Q15</f>
+      <c r="T16" s="1" t="n">
+        <f aca="false">T15</f>
         <v>43191.775</v>
       </c>
-      <c r="R16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -13761,30 +13804,32 @@
       <c r="J17" s="0" t="n">
         <v>0.894</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="0" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <f aca="false">H17+0.13</f>
         <v>7.544</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" s="1" t="n">
-        <f aca="false">Q16</f>
+      <c r="T17" s="1" t="n">
+        <f aca="false">T16</f>
         <v>43191.775</v>
       </c>
-      <c r="R17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -13818,31 +13863,33 @@
       <c r="J18" s="0" t="n">
         <v>0.915</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="0" t="s">
+      <c r="K18" s="2" t="n">
+        <v>0.1319558101</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <f aca="false">H18+0.13</f>
         <v>7.566</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q18" s="1" t="n">
-        <f aca="false">Q17</f>
+      <c r="T18" s="1" t="n">
+        <f aca="false">T17</f>
         <v>43191.775</v>
-      </c>
-      <c r="R18" s="2" t="n">
-        <v>0.1319558101</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13877,31 +13924,33 @@
       <c r="J19" s="0" t="n">
         <v>0.908</v>
       </c>
-      <c r="K19" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="0" t="s">
+      <c r="K19" s="2" t="n">
+        <v>-0.0521685761</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <f aca="false">H19+0.13</f>
         <v>7.58</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" s="1" t="n">
-        <f aca="false">Q18</f>
+      <c r="T19" s="1" t="n">
+        <f aca="false">T18</f>
         <v>43191.775</v>
-      </c>
-      <c r="R19" s="2" t="n">
-        <v>-0.0521685761</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13936,31 +13985,33 @@
       <c r="J20" s="0" t="n">
         <v>0.895</v>
       </c>
-      <c r="K20" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="0" t="s">
+      <c r="K20" s="2" t="n">
+        <v>0.6024959083</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <f aca="false">H20+0.13</f>
         <v>7.591</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q20" s="1" t="n">
-        <f aca="false">Q19</f>
+      <c r="T20" s="1" t="n">
+        <f aca="false">T19</f>
         <v>43191.775</v>
-      </c>
-      <c r="R20" s="2" t="n">
-        <v>0.6024959083</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13995,31 +14046,33 @@
       <c r="J21" s="0" t="n">
         <v>0.896</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="0" t="s">
+      <c r="K21" s="2" t="n">
+        <v>0.3365384615</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <f aca="false">H21+0.13</f>
         <v>7.61</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Q21" s="1" t="n">
-        <f aca="false">Q20</f>
+      <c r="T21" s="1" t="n">
+        <f aca="false">T20</f>
         <v>43191.775</v>
-      </c>
-      <c r="R21" s="2" t="n">
-        <v>0.3365384615</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14054,31 +14107,33 @@
       <c r="J22" s="0" t="n">
         <v>0.896</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="0" t="s">
+      <c r="K22" s="2" t="n">
+        <v>0.09103927987</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <f aca="false">H22+0.13</f>
         <v>7.722</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q22" s="1" t="n">
-        <f aca="false">Q21</f>
+      <c r="T22" s="1" t="n">
+        <f aca="false">T21</f>
         <v>43191.775</v>
-      </c>
-      <c r="R22" s="2" t="n">
-        <v>0.09103927987</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14113,31 +14168,33 @@
       <c r="J23" s="0" t="n">
         <v>0.896</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" s="0" t="s">
+      <c r="K23" s="2" t="n">
+        <v>-0.3385842881</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <f aca="false">H23+0.13</f>
         <v>7.696</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q23" s="1" t="n">
-        <f aca="false">Q22</f>
+      <c r="T23" s="1" t="n">
+        <f aca="false">T22</f>
         <v>43191.775</v>
-      </c>
-      <c r="R23" s="2" t="n">
-        <v>-0.3385842881</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14172,31 +14229,33 @@
       <c r="J24" s="0" t="n">
         <v>0.898</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="0" t="s">
+      <c r="K24" s="2" t="n">
+        <v>-0.2158346972</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <f aca="false">H24+0.13</f>
         <v>8.2</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q24" s="1" t="n">
-        <f aca="false">Q23</f>
+      <c r="T24" s="1" t="n">
+        <f aca="false">T23</f>
         <v>43191.775</v>
-      </c>
-      <c r="R24" s="2" t="n">
-        <v>-0.2158346972</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14231,31 +14290,33 @@
       <c r="J25" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="K25" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25" s="0" t="s">
+      <c r="K25" s="2" t="n">
+        <v>-0.481792144</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <f aca="false">H25+0.13</f>
         <v>8.248</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" s="1" t="n">
-        <f aca="false">Q24</f>
+      <c r="T25" s="1" t="n">
+        <f aca="false">T24</f>
         <v>43191.775</v>
-      </c>
-      <c r="R25" s="2" t="n">
-        <v>-0.481792144</v>
       </c>
     </row>
   </sheetData>
@@ -14284,67 +14345,67 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>1</v>

--- a/data/flux/rates/RR2018_alk_corrected.xlsx
+++ b/data/flux/rates/RR2018_alk_corrected.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Original data" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="P1 and P2 approximates" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Original Alk data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="P1 and P2 approximate data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Selected RR1804 Bottle file dat" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Selected corrected KK nutrient " sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Alk with DIC output from PyCO2S" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="101">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -198,7 +200,13 @@
     <t xml:space="preserve">NaN</t>
   </si>
   <si>
-    <t xml:space="preserve">Pressure (dbar)</t>
+    <t xml:space="preserve">Cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alk R1 (mmol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrected pH</t>
   </si>
   <si>
     <t xml:space="preserve">Salinity (PSU)</t>
@@ -207,13 +215,34 @@
     <t xml:space="preserve">Temp</t>
   </si>
   <si>
-    <t xml:space="preserve">NO2 Conc.</t>
+    <t xml:space="preserve">Pressure (dbar)</t>
   </si>
   <si>
     <t xml:space="preserve">Silicate (umol)</t>
   </si>
   <si>
     <t xml:space="preserve">Phosphate (umol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid R3 (mmol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO2 Conc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO3 (umol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO2 (umol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KK NH4 (umol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR1804</t>
   </si>
   <si>
     <t xml:space="preserve">P1 approximate</t>
@@ -274,6 +303,30 @@
   </si>
   <si>
     <t xml:space="preserve">Par</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO2 hand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ PO4 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ Si(OH)4 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ NO3 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ NO2 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ NH4 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total DIC (mmol)</t>
   </si>
 </sst>
 </file>
@@ -462,7 +515,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -511,7 +564,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -571,7 +624,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$I$2:$I$9</c:f>
+              <c:f>'Original Alk data'!$I$2:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -604,7 +657,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$2:$D$9</c:f>
+              <c:f>'Original Alk data'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -642,7 +695,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -702,7 +755,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$I$10:$I$17</c:f>
+              <c:f>'Original Alk data'!$I$10:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -735,7 +788,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$10:$D$17</c:f>
+              <c:f>'Original Alk data'!$D$10:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -773,7 +826,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -833,7 +886,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$I$18:$I$25</c:f>
+              <c:f>'Original Alk data'!$I$18:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -866,7 +919,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$18:$D$25</c:f>
+              <c:f>'Original Alk data'!$D$18:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -904,7 +957,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -964,7 +1017,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$I$26:$I$33</c:f>
+              <c:f>'Original Alk data'!$I$26:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -997,7 +1050,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$26:$D$33</c:f>
+              <c:f>'Original Alk data'!$D$26:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1035,7 +1088,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1095,7 +1148,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$I$34:$I$45</c:f>
+              <c:f>'Original Alk data'!$I$34:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1140,7 +1193,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$34:$D$45</c:f>
+              <c:f>'Original Alk data'!$D$34:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1190,7 +1243,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1250,7 +1303,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$I$46:$I$57</c:f>
+              <c:f>'Original Alk data'!$I$46:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1295,7 +1348,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$46:$D$57</c:f>
+              <c:f>'Original Alk data'!$D$46:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1345,7 +1398,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1405,7 +1458,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$I$58:$I$71</c:f>
+              <c:f>'Original Alk data'!$I$58:$I$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1456,7 +1509,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$58:$D$71</c:f>
+              <c:f>'Original Alk data'!$D$58:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1512,7 +1565,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1572,7 +1625,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$I$72:$I$85</c:f>
+              <c:f>'Original Alk data'!$I$72:$I$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1623,7 +1676,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$72:$D$85</c:f>
+              <c:f>'Original Alk data'!$D$72:$D$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1674,11 +1727,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="94298690"/>
-        <c:axId val="25948079"/>
+        <c:axId val="63099385"/>
+        <c:axId val="12594884"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94298690"/>
+        <c:axId val="63099385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,12 +1807,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25948079"/>
+        <c:crossAx val="12594884"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25948079"/>
+        <c:axId val="12594884"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1835,7 +1888,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94298690"/>
+        <c:crossAx val="63099385"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1897,7 +1950,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1946,7 +1999,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2006,7 +2059,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$J$2:$J$9</c:f>
+              <c:f>'Original Alk data'!$J$2:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2039,7 +2092,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$2:$D$9</c:f>
+              <c:f>'Original Alk data'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2077,7 +2130,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2137,7 +2190,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$J$10:$J$17</c:f>
+              <c:f>'Original Alk data'!$J$10:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2170,7 +2223,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$10:$D$17</c:f>
+              <c:f>'Original Alk data'!$D$10:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2208,7 +2261,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2268,7 +2321,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$J$18:$J$25</c:f>
+              <c:f>'Original Alk data'!$J$18:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2301,7 +2354,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$18:$D$25</c:f>
+              <c:f>'Original Alk data'!$D$18:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2339,7 +2392,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2399,7 +2452,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$J$27:$J$33</c:f>
+              <c:f>'Original Alk data'!$J$27:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2429,7 +2482,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$27:$D$33</c:f>
+              <c:f>'Original Alk data'!$D$27:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2464,7 +2517,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2524,7 +2577,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$J$35:$J$41</c:f>
+              <c:f>'Original Alk data'!$J$35:$J$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2554,7 +2607,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$35:$D$41</c:f>
+              <c:f>'Original Alk data'!$D$35:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2589,7 +2642,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2649,7 +2702,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$J$46:$J$57</c:f>
+              <c:f>'Original Alk data'!$J$46:$J$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2691,7 +2744,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$46:$D$57</c:f>
+              <c:f>'Original Alk data'!$D$46:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2741,7 +2794,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2801,7 +2854,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$J$58:$J$71</c:f>
+              <c:f>'Original Alk data'!$J$58:$J$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2852,7 +2905,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$58:$D$71</c:f>
+              <c:f>'Original Alk data'!$D$58:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2908,7 +2961,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Original data'!$B$1:$B$1</c:f>
+              <c:f>'Original Alk data'!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2968,7 +3021,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Original data'!$J$72:$J$85</c:f>
+              <c:f>'Original Alk data'!$J$72:$J$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3019,7 +3072,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original data'!$D$72:$D$85</c:f>
+              <c:f>'Original Alk data'!$D$72:$D$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3070,11 +3123,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="58069308"/>
-        <c:axId val="17011731"/>
+        <c:axId val="21636354"/>
+        <c:axId val="78211070"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58069308"/>
+        <c:axId val="21636354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,12 +3203,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17011731"/>
+        <c:crossAx val="78211070"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17011731"/>
+        <c:axId val="78211070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3231,7 +3284,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58069308"/>
+        <c:crossAx val="21636354"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12837,44 +12890,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>59</v>
@@ -12883,1440 +12932,1462 @@
         <v>60</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="D2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="E2" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>34.5603</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>3.837</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <f aca="false">E2</f>
+        <v>1200</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>108.89</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="0" t="n">
+        <v>46.72</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>-4.46</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>7.557</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>34.5386</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>4.4641</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <f aca="false">E3</f>
+        <v>1000</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>98.79</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="0" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>7.548</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>34.5177</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>5.3501</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <f aca="false">E4</f>
+        <v>800</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="0" t="n">
+        <v>45.54</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>-5.81</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>7.553</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>34.509</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>5.9384</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <f aca="false">E5</f>
+        <v>700</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>76.29</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="0" t="n">
+        <v>42.91</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>-7.52</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2.528</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>7.548</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>34.511</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>6.6863</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <f aca="false">E6</f>
+        <v>600</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>67.99</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="0" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>-9.12</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2.534</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>7.552</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>34.5355</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>7.7197</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <f aca="false">E7</f>
+        <v>500</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>-0.03265926986</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>-11.79</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>7.557</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>34.5495</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>8.8088</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <f aca="false">E8</f>
+        <v>400</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>48.46</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0.003131710809</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>-13.12</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2.517</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>34.6458</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>10.6164</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <f aca="false">E9</f>
+        <v>300</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>37.39</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0.1462956335</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>-16.06</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>7.614</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>34.7299</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>12.2933</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <f aca="false">E10</f>
+        <v>200</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>31.63</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0.2178775948</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>-14.85</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2.506</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>7.701</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>34.5383</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>14.9184</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <f aca="false">E11</f>
+        <v>100</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0.2536685755</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>-10.81</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>7.872</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>34.3092</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>16.7567</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <f aca="false">E12</f>
+        <v>75</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0.3610415175</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>-8.23</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2.531</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>8.215</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>34.3597</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>24.7281</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <f aca="false">E13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0.2536685755</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <f aca="false">D2</f>
+      <c r="F14" s="0" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>7.583</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>34.5681</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>3.7887</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <f aca="false">E14</f>
         <v>1200</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>34.5603</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>3.837</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>2.539</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <f aca="false">H2+0.13</f>
+      <c r="K14" s="0" t="n">
+        <v>106.42</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="0" t="n">
+        <v>45.78</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>-3.51</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2.551</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>7.549</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>34.5519</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>4.4433</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <f aca="false">E15</f>
+        <v>1000</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="0" t="n">
+        <v>46.83</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>-3.87</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2.522</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>7.528</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>34.5347</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>5.5336</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <f aca="false">E16</f>
+        <v>800</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>79.79</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="0" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>-5.76</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>7.544</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>34.5366</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>6.7595</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <f aca="false">E17</f>
+        <v>600</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>61.89</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="0" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>-8.76</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>7.566</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>34.6034</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>9.1773</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <f aca="false">E18</f>
+        <v>400</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>0.1319558101</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>-12.45</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2.522</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>7.58</v>
       </c>
-      <c r="R2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <f aca="false">D3</f>
-        <v>1000</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>34.5386</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>4.4641</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>7.427</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>2.539</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <f aca="false">H3+0.13</f>
-        <v>7.557</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <f aca="false">D4</f>
-        <v>800</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>34.5177</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>5.3501</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>7.418</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>2.539</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <f aca="false">H4+0.13</f>
-        <v>7.548</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <f aca="false">D5</f>
-        <v>700</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>34.509</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>5.9384</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>7.423</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>2.523</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="H19" s="2" t="n">
+        <v>34.6778</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>10.5695</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <f aca="false">E19</f>
+        <v>300</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>33.64</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M19" s="0" t="n">
         <v>0.908</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <f aca="false">H5+0.13</f>
-        <v>7.553</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <f aca="false">D6</f>
-        <v>600</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>34.511</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>6.6863</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>7.418</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>2.528</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <f aca="false">H6+0.13</f>
-        <v>7.548</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <f aca="false">D7</f>
-        <v>500</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>34.5355</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>7.7197</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>7.422</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>2.534</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>-0.03265926986</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <f aca="false">H7+0.13</f>
-        <v>7.552</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <f aca="false">D8</f>
-        <v>400</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>34.5495</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>8.8088</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>7.427</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>0.003131710809</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <f aca="false">H8+0.13</f>
-        <v>7.557</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <f aca="false">D9</f>
-        <v>300</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>34.6458</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>10.6164</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>2.517</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0.1462956335</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <f aca="false">H9+0.13</f>
-        <v>7.58</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="N19" s="2" t="n">
+        <v>-0.0521685761</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>-13.14</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="E10" s="3" t="n">
-        <f aca="false">D10</f>
+      <c r="F20" s="0" t="n">
+        <v>2.486</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>7.591</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>34.7287</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>11.6164</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <f aca="false">E20</f>
         <v>200</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>34.7299</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>12.2933</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>7.484</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="K20" s="0" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>0.6024959083</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>-15.4</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>2.489</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="G21" s="0" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>34.7604</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>12.5761</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <f aca="false">E21</f>
+        <v>150</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M21" s="0" t="n">
         <v>0.896</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <v>0.2178775948</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <f aca="false">H10+0.13</f>
-        <v>7.614</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="N21" s="2" t="n">
+        <v>0.3365384615</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>-13.19</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="E11" s="3" t="n">
-        <f aca="false">D11</f>
+      <c r="F22" s="0" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>7.722</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>34.6829</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>15.5701</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <f aca="false">E22</f>
         <v>100</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>34.5383</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>14.9184</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>7.571</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>2.506</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>0.2536685755</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <f aca="false">H11+0.13</f>
-        <v>7.701</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <f aca="false">D12</f>
-        <v>75</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>34.3092</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>16.7567</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>7.742</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>2.414</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0.3610415175</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <f aca="false">H12+0.13</f>
-        <v>7.872</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="K22" s="0" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>0.09103927987</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="n">
-        <f aca="false">D13</f>
+      <c r="R22" s="0" t="n">
+        <v>-8.75</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>7.696</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>34.5778</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>16.9159</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <f aca="false">E23</f>
+        <v>80</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>-0.3385842881</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>34.3597</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>24.7281</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>8.085</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>2.531</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0.911</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>0.2536685755</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <f aca="false">H13+0.13</f>
-        <v>8.215</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B14" s="0" t="n">
+      <c r="R23" s="0" t="n">
+        <v>-8.21</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <f aca="false">D14</f>
-        <v>1200</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>34.5681</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>3.7887</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>7.453</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <f aca="false">H14+0.13</f>
-        <v>7.583</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T14" s="1" t="n">
-        <v>43191.775</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="E24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2.494</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>34.2368</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>25.5453</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <f aca="false">E24</f>
+        <v>50</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>-0.2158346972</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <f aca="false">D15</f>
-        <v>1000</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>34.5519</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>4.4433</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>7.419</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>2.551</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <f aca="false">H15+0.13</f>
-        <v>7.549</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="T15" s="1" t="n">
-        <f aca="false">T14</f>
-        <v>43191.775</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <f aca="false">D16</f>
-        <v>800</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>34.5347</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>5.5336</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>7.398</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>2.522</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0.908</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <f aca="false">H16+0.13</f>
-        <v>7.528</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="T16" s="1" t="n">
-        <f aca="false">T15</f>
-        <v>43191.775</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <f aca="false">D17</f>
-        <v>600</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>34.5366</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>6.7595</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>7.414</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>2.483</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <f aca="false">H17+0.13</f>
-        <v>7.544</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T17" s="1" t="n">
-        <f aca="false">T16</f>
-        <v>43191.775</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <f aca="false">D18</f>
-        <v>400</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>34.6034</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>9.1773</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>7.436</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>2.542</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0.915</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>0.1319558101</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <f aca="false">H18+0.13</f>
-        <v>7.566</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" s="1" t="n">
-        <f aca="false">T17</f>
-        <v>43191.775</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <f aca="false">D19</f>
-        <v>300</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>34.6778</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>10.5695</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>2.522</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0.908</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>-0.0521685761</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <f aca="false">H19+0.13</f>
-        <v>7.58</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1" t="n">
-        <f aca="false">T18</f>
-        <v>43191.775</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <f aca="false">D20</f>
-        <v>200</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>34.7287</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>11.6164</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>7.461</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>2.486</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>0.6024959083</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <f aca="false">H20+0.13</f>
-        <v>7.591</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T20" s="1" t="n">
-        <f aca="false">T19</f>
-        <v>43191.775</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <f aca="false">D21</f>
-        <v>150</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>34.7604</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>12.5761</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>2.489</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>0.896</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>0.3365384615</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <f aca="false">H21+0.13</f>
-        <v>7.61</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="T21" s="1" t="n">
-        <f aca="false">T20</f>
-        <v>43191.775</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <f aca="false">D22</f>
-        <v>100</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>34.6829</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>15.5701</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>7.592</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>2.489</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0.896</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>0.09103927987</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <f aca="false">H22+0.13</f>
-        <v>7.722</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="T22" s="1" t="n">
-        <f aca="false">T21</f>
-        <v>43191.775</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <f aca="false">D23</f>
-        <v>80</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>34.5778</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>16.9159</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>7.566</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>2.489</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>0.896</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>-0.3385842881</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <f aca="false">H23+0.13</f>
-        <v>7.696</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="R23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="S23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T23" s="1" t="n">
-        <f aca="false">T22</f>
-        <v>43191.775</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <f aca="false">D24</f>
-        <v>50</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>34.2368</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>25.5453</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>2.494</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>-0.2158346972</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <f aca="false">H24+0.13</f>
-        <v>8.2</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T24" s="1" t="n">
-        <f aca="false">T23</f>
-        <v>43191.775</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="3" t="n">
-        <f aca="false">D25</f>
+      <c r="F25" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>8.248</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>33.7267</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>27.4962</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <f aca="false">E25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="2" t="n">
-        <v>33.7267</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>27.4962</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>8.118</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M25" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="N25" s="2" t="n">
         <v>-0.481792144</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>53</v>
+      <c r="O25" s="0" t="n">
+        <v>0.05</v>
       </c>
       <c r="P25" s="0" t="n">
-        <f aca="false">H25+0.13</f>
-        <v>8.248</v>
+        <v>0.03</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="S25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" s="1" t="n">
-        <f aca="false">T24</f>
-        <v>43191.775</v>
+        <v>-0.37</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -14337,7 +14408,7 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -14345,73 +14416,73 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16093,4 +16164,2482 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-110.00264</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>20.50026</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1200.446</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>7.539</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>108.89</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>46.72</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>-4.46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-110.00262</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>20.50026</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1000.373</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7.557</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>98.79</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>-5.39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-110.00264</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>20.50028</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>800.25</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>45.54</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>-5.81</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-110.00262</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>20.50024</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>700.095</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>76.29</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>42.91</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>-7.52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-110.00262</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>20.50026</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>599.559</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7.557</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>67.99</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>-9.12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-110.00262</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>20.50028</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>499.896</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>-0.03265927</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>-11.79</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-110.00262</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>20.50026</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>400.442</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7.553</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.003131711</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>48.46</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>-13.12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>-110.00262</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>20.50026</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>300.296</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>7.552</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.146295634</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>37.39</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>-16.06</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-110.00262</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>20.50026</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>200.779</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7.557</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.217877595</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>31.63</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>-14.85</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-110.00264</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>20.50024</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>101.384</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.253668576</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>-10.81</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>-110.00264</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>20.50024</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>76.26</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.361041518</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>-8.23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-110.00264</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>20.50026</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2.586</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.253668576</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>-1.28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>-109.99844</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>15.07779</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1199.719</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>8.218</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>106.42</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>45.78</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>-3.51</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>-109.99844</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>15.07778</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1000.795</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>7.583</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>46.83</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>-3.87</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>-109.99844</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>15.07776</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>800.234</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>7.549</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>79.79</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>-5.76</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>-109.99844</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>15.0778</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>599.904</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>7.528</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>61.89</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>-8.76</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>-109.99844</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>15.07776</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>400.357</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.13195581</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>-12.45</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>-109.9984</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>15.07777</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>300.567</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7.566</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>-0.052168576</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>33.64</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>-13.14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>-109.99842</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>15.07776</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>200.938</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.602495908</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>-15.4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>-109.99844</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>15.07776</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>150.44</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7.591</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.336538462</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>-13.19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>-109.99842</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>15.07774</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>100.79</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.09103928</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>-8.75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>-109.99844</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>15.07774</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>81.116</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>7.722</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>-0.338584288</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>-8.21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>-109.99844</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>15.07776</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>50.99</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>7.696</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>-0.215834697</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>-1.44</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>-109.99842</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>15.07776</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>-0.481792144</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>34.5603</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>3.837</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <f aca="false">E2</f>
+        <v>1200</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>108.89</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="0" t="n">
+        <v>46.72</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>-4.46</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>7.557</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>34.5386</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>4.4641</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <f aca="false">E3</f>
+        <v>1000</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>98.79</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="0" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>7.548</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>34.5177</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>5.3501</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <f aca="false">E4</f>
+        <v>800</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="0" t="n">
+        <v>45.54</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>-5.81</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>7.553</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>34.509</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>5.9384</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <f aca="false">E5</f>
+        <v>700</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>76.29</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="0" t="n">
+        <v>42.91</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>-7.52</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2.528</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>7.548</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>34.511</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>6.6863</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <f aca="false">E6</f>
+        <v>600</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>67.99</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="0" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>-9.12</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2.534</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>7.552</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>34.5355</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>7.7197</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <f aca="false">E7</f>
+        <v>500</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>-0.03265926986</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>-11.79</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>7.557</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>34.5495</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>8.8088</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <f aca="false">E8</f>
+        <v>400</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>48.46</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0.003131710809</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>-13.12</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2.517</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>34.6458</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>10.6164</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <f aca="false">E9</f>
+        <v>300</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>37.39</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0.1462956335</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>-16.06</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>7.614</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>34.7299</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>12.2933</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <f aca="false">E10</f>
+        <v>200</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>31.63</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0.2178775948</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>-14.85</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2.506</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>7.701</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>34.5383</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>14.9184</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <f aca="false">E11</f>
+        <v>100</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0.2536685755</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>-10.81</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>7.872</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>34.3092</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>16.7567</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <f aca="false">E12</f>
+        <v>75</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0.3610415175</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>-8.23</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2.531</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>8.215</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>34.3597</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>24.7281</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <f aca="false">E13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>0.2536685755</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>7.583</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>34.5681</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>3.7887</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <f aca="false">E14</f>
+        <v>1200</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>106.42</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="0" t="n">
+        <v>45.78</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>-3.51</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2.551</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>7.549</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>34.5519</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>4.4433</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <f aca="false">E15</f>
+        <v>1000</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="0" t="n">
+        <v>46.83</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>-3.87</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2.522</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>7.528</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>34.5347</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>5.5336</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <f aca="false">E16</f>
+        <v>800</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>79.79</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="0" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>-5.76</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>7.544</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>34.5366</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>6.7595</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <f aca="false">E17</f>
+        <v>600</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>61.89</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="0" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>-8.76</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>7.566</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>34.6034</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>9.1773</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <f aca="false">E18</f>
+        <v>400</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0.1319558101</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>-12.45</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2.522</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>34.6778</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>10.5695</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <f aca="false">E19</f>
+        <v>300</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>33.64</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>-0.0521685761</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>-13.14</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2.486</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>7.591</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>34.7287</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>11.6164</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <f aca="false">E20</f>
+        <v>200</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>0.6024959083</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>-15.4</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>34.7604</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>12.5761</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <f aca="false">E21</f>
+        <v>150</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>0.3365384615</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>-13.19</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>7.722</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>34.6829</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>15.5701</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <f aca="false">E22</f>
+        <v>100</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>0.09103927987</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>-8.75</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>7.696</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>34.5778</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>16.9159</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <f aca="false">E23</f>
+        <v>80</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>-0.3385842881</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>-8.21</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2.494</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>34.2368</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>25.5453</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <f aca="false">E24</f>
+        <v>50</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>-0.2158346972</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>8.248</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>33.7267</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>27.4962</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <f aca="false">E25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>-0.481792144</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/flux/rates/RR2018_alk_corrected.xlsx
+++ b/data/flux/rates/RR2018_alk_corrected.xlsx
@@ -515,7 +515,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1727,11 +1727,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="63099385"/>
-        <c:axId val="12594884"/>
+        <c:axId val="75012274"/>
+        <c:axId val="4996157"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63099385"/>
+        <c:axId val="75012274"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,12 +1807,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12594884"/>
+        <c:crossAx val="4996157"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12594884"/>
+        <c:axId val="4996157"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1888,7 +1888,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63099385"/>
+        <c:crossAx val="75012274"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1950,7 +1950,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3123,11 +3123,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="21636354"/>
-        <c:axId val="78211070"/>
+        <c:axId val="11966736"/>
+        <c:axId val="18488236"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21636354"/>
+        <c:axId val="11966736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3203,12 +3203,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78211070"/>
+        <c:crossAx val="18488236"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78211070"/>
+        <c:axId val="18488236"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3284,7 +3284,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21636354"/>
+        <c:crossAx val="11966736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17126,8 +17126,8 @@
   </sheetPr>
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18075,6 +18075,9 @@
       <c r="L16" s="0" t="n">
         <v>3.34</v>
       </c>
+      <c r="M16" s="0" t="n">
+        <v>2.53</v>
+      </c>
       <c r="N16" s="0" t="n">
         <v>0.908</v>
       </c>
@@ -18133,6 +18136,9 @@
       <c r="L17" s="0" t="n">
         <v>3.23</v>
       </c>
+      <c r="M17" s="0" t="n">
+        <v>2.48</v>
+      </c>
       <c r="N17" s="0" t="n">
         <v>0.894</v>
       </c>
@@ -18191,6 +18197,9 @@
       <c r="L18" s="0" t="n">
         <v>2.92</v>
       </c>
+      <c r="M18" s="0" t="n">
+        <v>2.52</v>
+      </c>
       <c r="N18" s="0" t="n">
         <v>0.915</v>
       </c>
@@ -18251,6 +18260,9 @@
       <c r="L19" s="0" t="n">
         <v>2.75</v>
       </c>
+      <c r="M19" s="0" t="n">
+        <v>2.49</v>
+      </c>
       <c r="N19" s="0" t="n">
         <v>0.908</v>
       </c>
@@ -18311,6 +18323,9 @@
       <c r="L20" s="0" t="n">
         <v>2.69</v>
       </c>
+      <c r="M20" s="0" t="n">
+        <v>2.45</v>
+      </c>
       <c r="N20" s="0" t="n">
         <v>0.895</v>
       </c>
@@ -18371,6 +18386,9 @@
       <c r="L21" s="0" t="n">
         <v>2.61</v>
       </c>
+      <c r="M21" s="0" t="n">
+        <v>2.44</v>
+      </c>
       <c r="N21" s="0" t="n">
         <v>0.896</v>
       </c>
@@ -18431,6 +18449,9 @@
       <c r="L22" s="0" t="n">
         <v>2.43</v>
       </c>
+      <c r="M22" s="0" t="n">
+        <v>2.39</v>
+      </c>
       <c r="N22" s="0" t="n">
         <v>0.896</v>
       </c>
@@ -18491,6 +18512,9 @@
       <c r="L23" s="0" t="n">
         <v>2.27</v>
       </c>
+      <c r="M23" s="0" t="n">
+        <v>2.4</v>
+      </c>
       <c r="N23" s="0" t="n">
         <v>0.896</v>
       </c>
@@ -18551,6 +18575,9 @@
       <c r="L24" s="0" t="n">
         <v>0.28</v>
       </c>
+      <c r="M24" s="0" t="n">
+        <v>2.07</v>
+      </c>
       <c r="N24" s="0" t="n">
         <v>0.898</v>
       </c>
@@ -18610,6 +18637,9 @@
       </c>
       <c r="L25" s="0" t="n">
         <v>0.21</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>2.02</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>0.9</v>
